--- a/Documentação/Contextualizacao_Requisitos/Requisitos.xlsx
+++ b/Documentação/Contextualizacao_Requisitos/Requisitos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Documents\BandTec\aulas ead 2º sem\Mind6\Documentação\Contextualizacao_Requisitos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cicer\Desktop\Mind6\Mind6\Documentação\Contextualizacao_Requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FF9985-3074-4E99-AB6A-F5F62FE8DF7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148B398E-426F-437E-AC27-5ED767C67D03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,9 +81,6 @@
     <t xml:space="preserve">Relatórios sobre as máquinas </t>
   </si>
   <si>
-    <t xml:space="preserve">Monitoramento das máquinas em tempo real </t>
-  </si>
-  <si>
     <t xml:space="preserve">O sistema permite alterações no perfil do usuário </t>
   </si>
   <si>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t xml:space="preserve">Não Funcional </t>
+  </si>
+  <si>
+    <t>O sistema deve capturar dados a cada 15 min</t>
   </si>
 </sst>
 </file>
@@ -130,7 +130,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -153,11 +153,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -169,6 +178,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,7 +524,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="4">
         <v>3</v>
@@ -535,7 +546,7 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>5</v>
@@ -569,7 +580,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="4">
         <v>3</v>
@@ -577,13 +588,13 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="4">
         <v>8</v>
@@ -597,7 +608,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="4">
         <v>5</v>
@@ -647,13 +658,13 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" s="4">
         <v>13</v>
@@ -661,13 +672,13 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15" s="4">
         <v>8</v>
@@ -681,11 +692,15 @@
         <v>5</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16" s="4">
         <v>5</v>
       </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
